--- a/data/LEAP_Supply.xlsx
+++ b/data/LEAP_Supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev\Documents\Software Projects\SDSN GCH\ScenViz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giann\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1030A9DA-B902-4A98-9664-99E7D3714230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED227E-D7C3-4580-A807-DAAF86F4E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01BF1780-3214-47DB-9C17-C2F5550468A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01BF1780-3214-47DB-9C17-C2F5550468A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="21">
   <si>
     <t>Branch</t>
   </si>
@@ -74,12 +74,43 @@
   <si>
     <t>Oil Refining</t>
   </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;&quot;\-&quot;&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +121,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,16 +156,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,27 +501,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F58F65-D173-4C9B-B57C-646E19A136BF}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,1329 +538,6268 @@
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3">
-        <v>4511.6000000000004</v>
-      </c>
-      <c r="E2" s="2">
-        <v>36</v>
+      <c r="D2" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F2" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>36</v>
+      <c r="D3" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F3" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>36</v>
+      <c r="D4" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F4" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>36</v>
+      <c r="D5" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F5" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>36</v>
+      <c r="D6" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F6" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>36</v>
+      <c r="D7" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F7" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>36</v>
+      <c r="D8" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F8" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>36</v>
+      <c r="D9" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F9" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>36</v>
+      <c r="D10" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F10" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2031</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>36</v>
+      <c r="D11" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F11" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2032</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>36</v>
+      <c r="D12" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F12" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2033</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>36</v>
+      <c r="D13" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F13" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2034</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>36</v>
+      <c r="D14" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F14" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2035</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>36</v>
+      <c r="D15" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F15" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2036</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>36</v>
+      <c r="D16" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F16" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2037</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>36</v>
+      <c r="D17" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F17" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2038</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>36</v>
+      <c r="D18" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F18" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2039</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>36</v>
+      <c r="D19" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F19" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2040</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>36</v>
+      <c r="D20" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F20" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2041</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>36</v>
+      <c r="D21" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F21" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2042</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>36</v>
+      <c r="D22" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F22" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2043</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>36</v>
+      <c r="D23" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F23" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2044</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>36</v>
+      <c r="D24" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F24" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2045</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>36</v>
+      <c r="D25" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F25" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2046</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>36</v>
+      <c r="D26" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F26" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2047</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>36</v>
+      <c r="D27" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F27" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2048</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36</v>
+      <c r="D28" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F28" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2049</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36</v>
+      <c r="D29" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F29" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2050</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="3">
-        <v>4687.2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>36</v>
+      <c r="D30" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45.295150954975547</v>
       </c>
       <c r="F30" s="3">
         <v>27576.400000000001</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2022</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3">
-        <v>4511.6000000000004</v>
-      </c>
-      <c r="E31" s="2">
-        <v>36</v>
-      </c>
-      <c r="F31" s="3">
-        <v>27576.400000000001</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E31" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F31" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2023</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3">
-        <v>4830.3999999999996</v>
-      </c>
-      <c r="E32" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F32" s="3">
-        <v>26602</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>4777.8205989658418</v>
+      </c>
+      <c r="E32" s="4">
+        <v>46.285292216666932</v>
+      </c>
+      <c r="F32" s="4">
+        <v>26601.990476481653</v>
+      </c>
+      <c r="G32" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2024</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3">
-        <v>4831.6000000000004</v>
-      </c>
-      <c r="E33" s="2">
-        <v>49.7</v>
-      </c>
-      <c r="F33" s="3">
-        <v>25627.599999999999</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>4819.5042184467629</v>
+      </c>
+      <c r="E33" s="4">
+        <v>47.274251779425441</v>
+      </c>
+      <c r="F33" s="4">
+        <v>25627.625932422536</v>
+      </c>
+      <c r="G33" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3">
-        <v>4811.7</v>
-      </c>
-      <c r="E34" s="2">
-        <v>56.5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>24653.3</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>4861.3576366244351</v>
+      </c>
+      <c r="E34" s="4">
+        <v>48.266580060143141</v>
+      </c>
+      <c r="F34" s="4">
+        <v>24653.26138836344</v>
+      </c>
+      <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2026</v>
       </c>
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>4898.1000000000004</v>
-      </c>
-      <c r="E35" s="2">
-        <v>56.3</v>
-      </c>
-      <c r="F35" s="3">
-        <v>24015.7</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>4966.8160159650679</v>
+      </c>
+      <c r="E35" s="4">
+        <v>47.87638407694751</v>
+      </c>
+      <c r="F35" s="4">
+        <v>24015.69606028853</v>
+      </c>
+      <c r="G35" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2027</v>
       </c>
-      <c r="B36" s="2">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4984.3999999999996</v>
-      </c>
-      <c r="E36" s="2">
-        <v>56</v>
-      </c>
-      <c r="F36" s="3">
-        <v>23378.1</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>5062.5690869116952</v>
+      </c>
+      <c r="E36" s="4">
+        <v>47.501169853102709</v>
+      </c>
+      <c r="F36" s="4">
+        <v>23378.130732213627</v>
+      </c>
+      <c r="G36" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2028</v>
       </c>
-      <c r="B37" s="2">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2">
-        <v>21.8</v>
-      </c>
-      <c r="D37" s="3">
-        <v>5070.7</v>
-      </c>
-      <c r="E37" s="2">
-        <v>55.8</v>
-      </c>
-      <c r="F37" s="3">
-        <v>22740.6</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>5148.7563880165644</v>
+      </c>
+      <c r="E37" s="4">
+        <v>47.136141072642687</v>
+      </c>
+      <c r="F37" s="4">
+        <v>22740.565404138728</v>
+      </c>
+      <c r="G37" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2029</v>
       </c>
-      <c r="B38" s="2">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5156.8</v>
-      </c>
-      <c r="E38" s="2">
-        <v>55.5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>22103</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>5225.5055912758999</v>
+      </c>
+      <c r="E38" s="4">
+        <v>46.781850036133584</v>
+      </c>
+      <c r="F38" s="4">
+        <v>22103.000076063821</v>
+      </c>
+      <c r="G38" t="s">
         <v>3</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2030</v>
       </c>
-      <c r="B39" s="2">
-        <v>20</v>
-      </c>
-      <c r="C39" s="2">
-        <v>36.4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5242.9</v>
-      </c>
-      <c r="E39" s="2">
-        <v>55.2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>21465.4</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>5292.9370219838938</v>
+      </c>
+      <c r="E39" s="4">
+        <v>46.43712449346954</v>
+      </c>
+      <c r="F39" s="4">
+        <v>21465.434747988922</v>
+      </c>
+      <c r="G39" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2031</v>
       </c>
-      <c r="B40" s="2">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C40" s="2">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5478.5</v>
-      </c>
-      <c r="E40" s="2">
-        <v>55</v>
-      </c>
-      <c r="F40" s="3">
-        <v>21417.5</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="B40" s="4">
+        <v>14.71833958832238</v>
+      </c>
+      <c r="C40" s="4">
+        <v>26.282749264861391</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5511.1458358495993</v>
+      </c>
+      <c r="E40" s="4">
+        <v>46.104287028841426</v>
+      </c>
+      <c r="F40" s="4">
+        <v>21417.451890253182</v>
+      </c>
+      <c r="G40" t="s">
         <v>3</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2032</v>
       </c>
-      <c r="B41" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="C41" s="2">
-        <v>93.7</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5710</v>
-      </c>
-      <c r="E41" s="2">
-        <v>54.7</v>
-      </c>
-      <c r="F41" s="3">
-        <v>21369.5</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="B41" s="4">
+        <v>28.963480383313538</v>
+      </c>
+      <c r="C41" s="4">
+        <v>50.813123479497442</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5713.4148395986322</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45.886156012573906</v>
+      </c>
+      <c r="F41" s="4">
+        <v>21369.469032517445</v>
+      </c>
+      <c r="G41" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2033</v>
       </c>
-      <c r="B42" s="2">
-        <v>68.8</v>
-      </c>
-      <c r="C42" s="2">
-        <v>121</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5937.6</v>
-      </c>
-      <c r="E42" s="2">
-        <v>54.4</v>
-      </c>
-      <c r="F42" s="3">
-        <v>21321.5</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="B42" s="4">
+        <v>42.735422384973475</v>
+      </c>
+      <c r="C42" s="4">
+        <v>73.681762732712897</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5899.5050006972779</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45.674685825121827</v>
+      </c>
+      <c r="F42" s="4">
+        <v>21321.486174781698</v>
+      </c>
+      <c r="G42" t="s">
         <v>3</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2034</v>
       </c>
-      <c r="B43" s="2">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2">
-        <v>147.4</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6163.3</v>
-      </c>
-      <c r="E43" s="2">
-        <v>54.2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>21273.5</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="B43" s="4">
+        <v>56.034165593302177</v>
+      </c>
+      <c r="C43" s="4">
+        <v>94.973162022546063</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6069.475637042452</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45.468164596385321</v>
+      </c>
+      <c r="F43" s="4">
+        <v>21273.503317045961</v>
+      </c>
+      <c r="G43" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2035</v>
       </c>
-      <c r="B44" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="C44" s="2">
-        <v>172.9</v>
-      </c>
-      <c r="D44" s="3">
-        <v>6387.2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>53.9</v>
-      </c>
-      <c r="F44" s="3">
-        <v>21225.5</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="B44" s="4">
+        <v>68.859710008299658</v>
+      </c>
+      <c r="C44" s="4">
+        <v>114.76618334716611</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6223.3882873870116</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45.264425930280197</v>
+      </c>
+      <c r="F44" s="4">
+        <v>21225.520459310221</v>
+      </c>
+      <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2036</v>
       </c>
-      <c r="B45" s="2">
-        <v>135.1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>233.1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>6696.4</v>
-      </c>
-      <c r="E45" s="2">
-        <v>54.7</v>
-      </c>
-      <c r="F45" s="3">
-        <v>20579.7</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="B45" s="4">
+        <v>90.995638377194098</v>
+      </c>
+      <c r="C45" s="4">
+        <v>198.93103148188158</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6616.9339297858678</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45.067529093912626</v>
+      </c>
+      <c r="F45" s="4">
+        <v>20579.682224729153</v>
+      </c>
+      <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2037</v>
       </c>
-      <c r="B46" s="2">
-        <v>168.8</v>
-      </c>
-      <c r="C46" s="2">
-        <v>291.7</v>
-      </c>
-      <c r="D46" s="3">
-        <v>7000.5</v>
-      </c>
-      <c r="E46" s="2">
-        <v>55.5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>19933.8</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="B46" s="4">
+        <v>112.61600320016059</v>
+      </c>
+      <c r="C46" s="4">
+        <v>279.04816557600475</v>
+      </c>
+      <c r="D46" s="4">
+        <v>6967.8179931051964</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45.12681994751027</v>
+      </c>
+      <c r="F46" s="4">
+        <v>19933.843990148089</v>
+      </c>
+      <c r="G46" t="s">
         <v>3</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2038</v>
       </c>
-      <c r="B47" s="2">
-        <v>202.6</v>
-      </c>
-      <c r="C47" s="2">
-        <v>348.7</v>
-      </c>
-      <c r="D47" s="3">
-        <v>7299.8</v>
-      </c>
-      <c r="E47" s="2">
-        <v>56.3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>19288</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="B47" s="4">
+        <v>133.7208044771991</v>
+      </c>
+      <c r="C47" s="4">
+        <v>355.20270223755574</v>
+      </c>
+      <c r="D47" s="4">
+        <v>7278.5339314789217</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45.185187735474265</v>
+      </c>
+      <c r="F47" s="4">
+        <v>19288.005755567025</v>
+      </c>
+      <c r="G47" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2039</v>
       </c>
-      <c r="B48" s="2">
-        <v>236.4</v>
-      </c>
-      <c r="C48" s="2">
-        <v>404.1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>7594.6</v>
-      </c>
-      <c r="E48" s="2">
-        <v>57.1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>18642.2</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="B48" s="4">
+        <v>154.31004220830968</v>
+      </c>
+      <c r="C48" s="4">
+        <v>427.47399357601938</v>
+      </c>
+      <c r="D48" s="4">
+        <v>7552.3123329086739</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45.242073726552213</v>
+      </c>
+      <c r="F48" s="4">
+        <v>18642.167520985957</v>
+      </c>
+      <c r="G48" t="s">
         <v>3</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2040</v>
       </c>
-      <c r="B49" s="2">
-        <v>270.10000000000002</v>
-      </c>
-      <c r="C49" s="2">
-        <v>458</v>
-      </c>
-      <c r="D49" s="3">
-        <v>7885.1</v>
-      </c>
-      <c r="E49" s="2">
-        <v>57.9</v>
-      </c>
-      <c r="F49" s="3">
-        <v>17996.3</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="B49" s="4">
+        <v>174.38371639349234</v>
+      </c>
+      <c r="C49" s="4">
+        <v>495.93607164340256</v>
+      </c>
+      <c r="D49" s="4">
+        <v>7792.3422109026324</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45.296888877428927</v>
+      </c>
+      <c r="F49" s="4">
+        <v>17996.329286404893</v>
+      </c>
+      <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2041</v>
       </c>
-      <c r="B50" s="2">
-        <v>363</v>
-      </c>
-      <c r="C50" s="2">
-        <v>600.1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>8289.9</v>
-      </c>
-      <c r="E50" s="2">
-        <v>56</v>
-      </c>
-      <c r="F50" s="3">
-        <v>17550.099999999999</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="B50" s="4">
+        <v>233.88609849101559</v>
+      </c>
+      <c r="C50" s="4">
+        <v>606.58189549646386</v>
+      </c>
+      <c r="D50" s="4">
+        <v>8199.2925638362412</v>
+      </c>
+      <c r="E50" s="4">
+        <v>44.556556655523387</v>
+      </c>
+      <c r="F50" s="4">
+        <v>17550.143862172547</v>
+      </c>
+      <c r="G50" t="s">
         <v>3</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2042</v>
       </c>
-      <c r="B51" s="2">
-        <v>455.8</v>
-      </c>
-      <c r="C51" s="2">
-        <v>738.1</v>
-      </c>
-      <c r="D51" s="3">
-        <v>8687.7999999999993</v>
-      </c>
-      <c r="E51" s="2">
-        <v>54.2</v>
-      </c>
-      <c r="F51" s="3">
-        <v>17104</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="B51" s="4">
+        <v>292.68654678903937</v>
+      </c>
+      <c r="C51" s="4">
+        <v>712.20849657090866</v>
+      </c>
+      <c r="D51" s="4">
+        <v>8576.22730178653</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43.613378856438601</v>
+      </c>
+      <c r="F51" s="4">
+        <v>17103.958437940197</v>
+      </c>
+      <c r="G51" t="s">
         <v>3</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2043</v>
       </c>
-      <c r="B52" s="2">
-        <v>548.6</v>
-      </c>
-      <c r="C52" s="2">
-        <v>872.3</v>
-      </c>
-      <c r="D52" s="3">
-        <v>9079.2000000000007</v>
-      </c>
-      <c r="E52" s="2">
-        <v>52.3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>16657.8</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="B52" s="4">
+        <v>350.78506128756396</v>
+      </c>
+      <c r="C52" s="4">
+        <v>812.97572635978236</v>
+      </c>
+      <c r="D52" s="4">
+        <v>8924.0580471277262</v>
+      </c>
+      <c r="E52" s="4">
+        <v>42.668067877509444</v>
+      </c>
+      <c r="F52" s="4">
+        <v>16657.773013707847</v>
+      </c>
+      <c r="G52" t="s">
         <v>3</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2044</v>
       </c>
-      <c r="B53" s="2">
-        <v>641.4</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1002.8</v>
-      </c>
-      <c r="D53" s="3">
-        <v>9464.2999999999993</v>
-      </c>
-      <c r="E53" s="2">
-        <v>50.5</v>
-      </c>
-      <c r="F53" s="3">
-        <v>16211.6</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="B53" s="4">
+        <v>408.18164198658911</v>
+      </c>
+      <c r="C53" s="4">
+        <v>909.03418432451576</v>
+      </c>
+      <c r="D53" s="4">
+        <v>9243.0580412817508</v>
+      </c>
+      <c r="E53" s="4">
+        <v>41.720024663245894</v>
+      </c>
+      <c r="F53" s="4">
+        <v>16211.587589475497</v>
+      </c>
+      <c r="G53" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2045</v>
       </c>
-      <c r="B54" s="2">
-        <v>734.3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1129.8</v>
-      </c>
-      <c r="D54" s="3">
-        <v>9843.2999999999993</v>
-      </c>
-      <c r="E54" s="2">
-        <v>48.7</v>
-      </c>
-      <c r="F54" s="3">
-        <v>15765.4</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="B54" s="4">
+        <v>464.87628888611476</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1000.5258787499258</v>
+      </c>
+      <c r="D54" s="4">
+        <v>9533.4866641236276</v>
+      </c>
+      <c r="E54" s="4">
+        <v>40.768651857030171</v>
+      </c>
+      <c r="F54" s="4">
+        <v>15765.402165243146</v>
+      </c>
+      <c r="G54" t="s">
         <v>3</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2046</v>
       </c>
-      <c r="B55" s="3">
-        <v>1146.3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1709.4</v>
-      </c>
-      <c r="D55" s="3">
-        <v>10901.5</v>
-      </c>
-      <c r="E55" s="2">
-        <v>47.1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>14607.2</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="B55" s="4">
+        <v>826.77434671747028</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1502.3867882735874</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10518.311968992608</v>
+      </c>
+      <c r="E55" s="4">
+        <v>39.551944745069918</v>
+      </c>
+      <c r="F55" s="4">
+        <v>14607.195254380433</v>
+      </c>
+      <c r="G55" t="s">
         <v>3</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2047</v>
       </c>
-      <c r="B56" s="3">
-        <v>1558.3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2273.3000000000002</v>
-      </c>
-      <c r="D56" s="3">
-        <v>11921.8</v>
-      </c>
-      <c r="E56" s="2">
-        <v>45.5</v>
-      </c>
-      <c r="F56" s="3">
-        <v>13449</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="B56" s="4">
+        <v>1188.0760768258594</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1989.4074807577726</v>
+      </c>
+      <c r="D56" s="4">
+        <v>11448.945524392977</v>
+      </c>
+      <c r="E56" s="4">
+        <v>38.394671368219271</v>
+      </c>
+      <c r="F56" s="4">
+        <v>13448.988343517727</v>
+      </c>
+      <c r="G56" t="s">
         <v>3</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2048</v>
       </c>
-      <c r="B57" s="3">
-        <v>1970.3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2822.1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>12906.2</v>
-      </c>
-      <c r="E57" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="F57" s="3">
-        <v>12290.8</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="B57" s="4">
+        <v>1548.7814792112824</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2462.1933946770514</v>
+      </c>
+      <c r="D57" s="4">
+        <v>12327.086236284993</v>
+      </c>
+      <c r="E57" s="4">
+        <v>37.232824755452775</v>
+      </c>
+      <c r="F57" s="4">
+        <v>12290.781432655014</v>
+      </c>
+      <c r="G57" t="s">
         <v>3</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2049</v>
       </c>
-      <c r="B58" s="3">
-        <v>2382.3000000000002</v>
-      </c>
-      <c r="C58" s="3">
-        <v>3356.5</v>
-      </c>
-      <c r="D58" s="3">
-        <v>13856.5</v>
-      </c>
-      <c r="E58" s="2">
-        <v>42.3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>11132.6</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="B58" s="4">
+        <v>1908.890553873739</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2921.3172530360466</v>
+      </c>
+      <c r="D58" s="4">
+        <v>13154.524863843411</v>
+      </c>
+      <c r="E58" s="4">
+        <v>36.066221637931804</v>
+      </c>
+      <c r="F58" s="4">
+        <v>11132.574521792299</v>
+      </c>
+      <c r="G58" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2050</v>
       </c>
-      <c r="B59" s="3">
-        <v>2794.4</v>
-      </c>
-      <c r="C59" s="3">
-        <v>3876.9</v>
-      </c>
-      <c r="D59" s="3">
-        <v>14774.5</v>
-      </c>
-      <c r="E59" s="2">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9974.4</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="B59" s="4">
+        <v>2268.4033008132296</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3367.3212443670773</v>
+      </c>
+      <c r="D59" s="4">
+        <v>13932.954495566701</v>
+      </c>
+      <c r="E59" s="4">
+        <v>34.89488114751564</v>
+      </c>
+      <c r="F59" s="4">
+        <v>9974.367610929592</v>
+      </c>
+      <c r="G59" t="s">
         <v>3</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E60" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F60" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4">
+        <v>4767.7276435840004</v>
+      </c>
+      <c r="E61" s="4">
+        <v>45.202621716973148</v>
+      </c>
+      <c r="F61" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4">
+        <v>4794.7778284582137</v>
+      </c>
+      <c r="E62" s="4">
+        <v>45.042343187816087</v>
+      </c>
+      <c r="F62" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4">
+        <v>4821.977055649736</v>
+      </c>
+      <c r="E63" s="4">
+        <v>44.893010107723924</v>
+      </c>
+      <c r="F63" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4">
+        <v>4851.8580837868585</v>
+      </c>
+      <c r="E64" s="4">
+        <v>44.75425380634416</v>
+      </c>
+      <c r="F64" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4">
+        <v>4881.8810199224781</v>
+      </c>
+      <c r="E65" s="4">
+        <v>44.626078542816465</v>
+      </c>
+      <c r="F65" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4">
+        <v>4912.0812490947701</v>
+      </c>
+      <c r="E66" s="4">
+        <v>44.508910193552765</v>
+      </c>
+      <c r="F66" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4">
+        <v>4942.5099748826533</v>
+      </c>
+      <c r="E67" s="4">
+        <v>44.403600511009721</v>
+      </c>
+      <c r="F67" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4">
+        <v>4973.2011499095133</v>
+      </c>
+      <c r="E68" s="4">
+        <v>44.310500733476772</v>
+      </c>
+      <c r="F68" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4">
+        <v>5004.7655169071932</v>
+      </c>
+      <c r="E69" s="4">
+        <v>44.229386977209955</v>
+      </c>
+      <c r="F69" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
+        <v>5036.5411779717242</v>
+      </c>
+      <c r="E70" s="4">
+        <v>44.15867863986513</v>
+      </c>
+      <c r="F70" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4">
+        <v>5068.4292194327827</v>
+      </c>
+      <c r="E71" s="4">
+        <v>44.095262875037868</v>
+      </c>
+      <c r="F71" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4">
+        <v>5100.2953238514501</v>
+      </c>
+      <c r="E72" s="4">
+        <v>44.035267284132466</v>
+      </c>
+      <c r="F72" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4">
+        <v>5132.0262195529913</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43.975548287372661</v>
+      </c>
+      <c r="F73" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4">
+        <v>5163.5896980011594</v>
+      </c>
+      <c r="E74" s="4">
+        <v>43.914498972511865</v>
+      </c>
+      <c r="F74" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4">
+        <v>5194.9464905737595</v>
+      </c>
+      <c r="E75" s="4">
+        <v>43.851763709954014</v>
+      </c>
+      <c r="F75" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4">
+        <v>5226.0744896609613</v>
+      </c>
+      <c r="E76" s="4">
+        <v>43.786754176292582</v>
+      </c>
+      <c r="F76" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4">
+        <v>5256.9701728471291</v>
+      </c>
+      <c r="E77" s="4">
+        <v>43.719369390824966</v>
+      </c>
+      <c r="F77" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4">
+        <v>5287.6190661420205</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43.649253725287096</v>
+      </c>
+      <c r="F78" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4">
+        <v>5317.8137396054099</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43.575867142369539</v>
+      </c>
+      <c r="F79" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4">
+        <v>5347.7061009653871</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43.498327166223817</v>
+      </c>
+      <c r="F80" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4">
+        <v>5376.9423039780368</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43.415641549661608</v>
+      </c>
+      <c r="F81" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4">
+        <v>5405.7350026514923</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43.326839997860851</v>
+      </c>
+      <c r="F82" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4">
+        <v>5434.1008945304657</v>
+      </c>
+      <c r="E83" s="4">
+        <v>43.231198082588691</v>
+      </c>
+      <c r="F83" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4">
+        <v>5461.8361036265496</v>
+      </c>
+      <c r="E84" s="4">
+        <v>43.128421634576242</v>
+      </c>
+      <c r="F84" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4">
+        <v>5489.0896571885378</v>
+      </c>
+      <c r="E85" s="4">
+        <v>43.018721404569909</v>
+      </c>
+      <c r="F85" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4">
+        <v>5515.9018018510214</v>
+      </c>
+      <c r="E86" s="4">
+        <v>42.902229106918782</v>
+      </c>
+      <c r="F86" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4">
+        <v>5542.283803905023</v>
+      </c>
+      <c r="E87" s="4">
+        <v>42.779366227313723</v>
+      </c>
+      <c r="F87" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4">
+        <v>5568.2535602041935</v>
+      </c>
+      <c r="E88" s="4">
+        <v>42.65068596568937</v>
+      </c>
+      <c r="F88" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E89" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F89" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4">
+        <v>4767.7276435840004</v>
+      </c>
+      <c r="E90" s="4">
+        <v>45.202621716973148</v>
+      </c>
+      <c r="F90" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4">
+        <v>4794.7778284582137</v>
+      </c>
+      <c r="E91" s="4">
+        <v>45.042343187816087</v>
+      </c>
+      <c r="F91" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4">
+        <v>4821.977055649736</v>
+      </c>
+      <c r="E92" s="4">
+        <v>44.893010107723924</v>
+      </c>
+      <c r="F92" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4">
+        <v>4851.8580837868585</v>
+      </c>
+      <c r="E93" s="4">
+        <v>44.75425380634416</v>
+      </c>
+      <c r="F93" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4">
+        <v>4881.8810199224781</v>
+      </c>
+      <c r="E94" s="4">
+        <v>44.626078542816465</v>
+      </c>
+      <c r="F94" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4">
+        <v>4912.0812490947701</v>
+      </c>
+      <c r="E95" s="4">
+        <v>44.508910193552765</v>
+      </c>
+      <c r="F95" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4">
+        <v>4942.5099748826533</v>
+      </c>
+      <c r="E96" s="4">
+        <v>44.403600511009721</v>
+      </c>
+      <c r="F96" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4">
+        <v>4973.2011499095133</v>
+      </c>
+      <c r="E97" s="4">
+        <v>44.310500733476772</v>
+      </c>
+      <c r="F97" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4">
+        <v>5004.7655169071932</v>
+      </c>
+      <c r="E98" s="4">
+        <v>44.229386977209955</v>
+      </c>
+      <c r="F98" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4">
+        <v>5036.5411779717242</v>
+      </c>
+      <c r="E99" s="4">
+        <v>44.15867863986513</v>
+      </c>
+      <c r="F99" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4">
+        <v>5068.4292194327827</v>
+      </c>
+      <c r="E100" s="4">
+        <v>44.095262875037868</v>
+      </c>
+      <c r="F100" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4">
+        <v>5100.2953238514501</v>
+      </c>
+      <c r="E101" s="4">
+        <v>44.035267284132466</v>
+      </c>
+      <c r="F101" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4">
+        <v>5132.0262195529913</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43.975548287372661</v>
+      </c>
+      <c r="F102" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4">
+        <v>5163.5896980011594</v>
+      </c>
+      <c r="E103" s="4">
+        <v>43.914498972511865</v>
+      </c>
+      <c r="F103" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4">
+        <v>5194.9464905737595</v>
+      </c>
+      <c r="E104" s="4">
+        <v>43.851763709954014</v>
+      </c>
+      <c r="F104" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4">
+        <v>5226.0744896609613</v>
+      </c>
+      <c r="E105" s="4">
+        <v>43.786754176292582</v>
+      </c>
+      <c r="F105" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4">
+        <v>5256.9701728471291</v>
+      </c>
+      <c r="E106" s="4">
+        <v>43.719369390824966</v>
+      </c>
+      <c r="F106" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4">
+        <v>5287.6190661420205</v>
+      </c>
+      <c r="E107" s="4">
+        <v>43.649253725287096</v>
+      </c>
+      <c r="F107" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4">
+        <v>5317.8137396054099</v>
+      </c>
+      <c r="E108" s="4">
+        <v>43.575867142369539</v>
+      </c>
+      <c r="F108" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4">
+        <v>5347.7061009653871</v>
+      </c>
+      <c r="E109" s="4">
+        <v>43.498327166223817</v>
+      </c>
+      <c r="F109" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4">
+        <v>5376.9423039780368</v>
+      </c>
+      <c r="E110" s="4">
+        <v>43.415641549661608</v>
+      </c>
+      <c r="F110" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4">
+        <v>5405.7350026514923</v>
+      </c>
+      <c r="E111" s="4">
+        <v>43.326839997860851</v>
+      </c>
+      <c r="F111" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4">
+        <v>5434.1008945304657</v>
+      </c>
+      <c r="E112" s="4">
+        <v>43.231198082588691</v>
+      </c>
+      <c r="F112" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4">
+        <v>5461.8361036265496</v>
+      </c>
+      <c r="E113" s="4">
+        <v>43.128421634576242</v>
+      </c>
+      <c r="F113" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4">
+        <v>5489.0896571885378</v>
+      </c>
+      <c r="E114" s="4">
+        <v>43.018721404569909</v>
+      </c>
+      <c r="F114" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4">
+        <v>5515.9018018510214</v>
+      </c>
+      <c r="E115" s="4">
+        <v>42.902229106918782</v>
+      </c>
+      <c r="F115" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4">
+        <v>5542.283803905023</v>
+      </c>
+      <c r="E116" s="4">
+        <v>42.779366227313723</v>
+      </c>
+      <c r="F116" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4">
+        <v>5568.2535602041935</v>
+      </c>
+      <c r="E117" s="4">
+        <v>42.65068596568937</v>
+      </c>
+      <c r="F117" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E118" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F118" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4">
+        <v>4767.7276435840004</v>
+      </c>
+      <c r="E119" s="4">
+        <v>45.202621716973148</v>
+      </c>
+      <c r="F119" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4">
+        <v>4794.7778284582137</v>
+      </c>
+      <c r="E120" s="4">
+        <v>45.042343187816087</v>
+      </c>
+      <c r="F120" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4">
+        <v>4821.977055649736</v>
+      </c>
+      <c r="E121" s="4">
+        <v>44.893010107723924</v>
+      </c>
+      <c r="F121" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4">
+        <v>4851.8580837868585</v>
+      </c>
+      <c r="E122" s="4">
+        <v>44.75425380634416</v>
+      </c>
+      <c r="F122" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4">
+        <v>4881.8810199224781</v>
+      </c>
+      <c r="E123" s="4">
+        <v>44.626078542816465</v>
+      </c>
+      <c r="F123" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4">
+        <v>4912.0812490947701</v>
+      </c>
+      <c r="E124" s="4">
+        <v>44.508910193552765</v>
+      </c>
+      <c r="F124" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4">
+        <v>4942.5099748826533</v>
+      </c>
+      <c r="E125" s="4">
+        <v>44.403600511009721</v>
+      </c>
+      <c r="F125" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4">
+        <v>4973.2011499095133</v>
+      </c>
+      <c r="E126" s="4">
+        <v>44.310500733476772</v>
+      </c>
+      <c r="F126" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4">
+        <v>5004.7655169071932</v>
+      </c>
+      <c r="E127" s="4">
+        <v>44.229386977209955</v>
+      </c>
+      <c r="F127" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4">
+        <v>5036.5411779717242</v>
+      </c>
+      <c r="E128" s="4">
+        <v>44.15867863986513</v>
+      </c>
+      <c r="F128" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4">
+        <v>5068.4292194327827</v>
+      </c>
+      <c r="E129" s="4">
+        <v>44.095262875037868</v>
+      </c>
+      <c r="F129" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4">
+        <v>5100.2953238514501</v>
+      </c>
+      <c r="E130" s="4">
+        <v>44.035267284132466</v>
+      </c>
+      <c r="F130" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4">
+        <v>5132.0262195529913</v>
+      </c>
+      <c r="E131" s="4">
+        <v>43.975548287372661</v>
+      </c>
+      <c r="F131" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4">
+        <v>5163.5896980011594</v>
+      </c>
+      <c r="E132" s="4">
+        <v>43.914498972511865</v>
+      </c>
+      <c r="F132" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4">
+        <v>5194.9464905737595</v>
+      </c>
+      <c r="E133" s="4">
+        <v>43.851763709954014</v>
+      </c>
+      <c r="F133" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4">
+        <v>5226.0744896609613</v>
+      </c>
+      <c r="E134" s="4">
+        <v>43.786754176292582</v>
+      </c>
+      <c r="F134" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4">
+        <v>5256.9701728471291</v>
+      </c>
+      <c r="E135" s="4">
+        <v>43.719369390824966</v>
+      </c>
+      <c r="F135" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4">
+        <v>5287.6190661420205</v>
+      </c>
+      <c r="E136" s="4">
+        <v>43.649253725287096</v>
+      </c>
+      <c r="F136" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4">
+        <v>5317.8137396054099</v>
+      </c>
+      <c r="E137" s="4">
+        <v>43.575867142369539</v>
+      </c>
+      <c r="F137" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4">
+        <v>5347.7061009653871</v>
+      </c>
+      <c r="E138" s="4">
+        <v>43.498327166223817</v>
+      </c>
+      <c r="F138" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4">
+        <v>5376.9423039780368</v>
+      </c>
+      <c r="E139" s="4">
+        <v>43.415641549661608</v>
+      </c>
+      <c r="F139" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4">
+        <v>5405.7350026514923</v>
+      </c>
+      <c r="E140" s="4">
+        <v>43.326839997860851</v>
+      </c>
+      <c r="F140" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4">
+        <v>5434.1008945304657</v>
+      </c>
+      <c r="E141" s="4">
+        <v>43.231198082588691</v>
+      </c>
+      <c r="F141" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4">
+        <v>5461.8361036265496</v>
+      </c>
+      <c r="E142" s="4">
+        <v>43.128421634576242</v>
+      </c>
+      <c r="F142" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4">
+        <v>5489.0896571885378</v>
+      </c>
+      <c r="E143" s="4">
+        <v>43.018721404569909</v>
+      </c>
+      <c r="F143" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4">
+        <v>5515.9018018510214</v>
+      </c>
+      <c r="E144" s="4">
+        <v>42.902229106918782</v>
+      </c>
+      <c r="F144" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4">
+        <v>5542.283803905023</v>
+      </c>
+      <c r="E145" s="4">
+        <v>42.779366227313723</v>
+      </c>
+      <c r="F145" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4">
+        <v>5568.2535602041935</v>
+      </c>
+      <c r="E146" s="4">
+        <v>42.65068596568937</v>
+      </c>
+      <c r="F146" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E147" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F147" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4">
+        <v>4762.735858452208</v>
+      </c>
+      <c r="E148" s="4">
+        <v>45.054083168441402</v>
+      </c>
+      <c r="F148" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4">
+        <v>4787.0544662801385</v>
+      </c>
+      <c r="E149" s="4">
+        <v>44.815588328037798</v>
+      </c>
+      <c r="F149" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4">
+        <v>4811.313436295598</v>
+      </c>
+      <c r="E150" s="4">
+        <v>44.584052385443819</v>
+      </c>
+      <c r="F150" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4">
+        <v>4836.8367101856948</v>
+      </c>
+      <c r="E151" s="4">
+        <v>44.361042804716291</v>
+      </c>
+      <c r="F151" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4">
+        <v>4862.3657624083316</v>
+      </c>
+      <c r="E152" s="4">
+        <v>44.145536541757686</v>
+      </c>
+      <c r="F152" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4">
+        <v>4887.9166844611909</v>
+      </c>
+      <c r="E153" s="4">
+        <v>43.937630187168672</v>
+      </c>
+      <c r="F153" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4">
+        <v>4913.4756136003189</v>
+      </c>
+      <c r="E154" s="4">
+        <v>43.736594922250504</v>
+      </c>
+      <c r="F154" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4">
+        <v>4939.0251327452388</v>
+      </c>
+      <c r="E155" s="4">
+        <v>43.541644852121983</v>
+      </c>
+      <c r="F155" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4">
+        <v>4964.7772559557761</v>
+      </c>
+      <c r="E156" s="4">
+        <v>43.353021462771899</v>
+      </c>
+      <c r="F156" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4">
+        <v>4990.5349499718459</v>
+      </c>
+      <c r="E157" s="4">
+        <v>43.170487658588897</v>
+      </c>
+      <c r="F157" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4">
+        <v>5016.2481573973528</v>
+      </c>
+      <c r="E158" s="4">
+        <v>42.992458478248579</v>
+      </c>
+      <c r="F158" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4">
+        <v>5041.8421265208708</v>
+      </c>
+      <c r="E159" s="4">
+        <v>42.816786979625419</v>
+      </c>
+      <c r="F159" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4">
+        <v>5067.2509550212781</v>
+      </c>
+      <c r="E160" s="4">
+        <v>42.641655506208544</v>
+      </c>
+      <c r="F160" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4">
+        <v>5092.5837009012339</v>
+      </c>
+      <c r="E161" s="4">
+        <v>42.46619475110257</v>
+      </c>
+      <c r="F161" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4">
+        <v>5117.6760862920592</v>
+      </c>
+      <c r="E162" s="4">
+        <v>42.289891021574483</v>
+      </c>
+      <c r="F162" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4">
+        <v>5142.5083561301226</v>
+      </c>
+      <c r="E163" s="4">
+        <v>42.112239413118225</v>
+      </c>
+      <c r="F163" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4">
+        <v>5167.0556135728712</v>
+      </c>
+      <c r="E164" s="4">
+        <v>41.93263404029797</v>
+      </c>
+      <c r="F164" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4">
+        <v>5191.2903191783525</v>
+      </c>
+      <c r="E165" s="4">
+        <v>41.750433893872838</v>
+      </c>
+      <c r="F165" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4">
+        <v>5215.2483416137511</v>
+      </c>
+      <c r="E166" s="4">
+        <v>41.565081386637132</v>
+      </c>
+      <c r="F166" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4">
+        <v>5238.8343371796973</v>
+      </c>
+      <c r="E167" s="4">
+        <v>41.375874039578257</v>
+      </c>
+      <c r="F167" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4">
+        <v>5262.0062747841002</v>
+      </c>
+      <c r="E168" s="4">
+        <v>41.181916195898474</v>
+      </c>
+      <c r="F168" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4">
+        <v>5284.7266738211829</v>
+      </c>
+      <c r="E169" s="4">
+        <v>40.982457084468813</v>
+      </c>
+      <c r="F169" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4">
+        <v>5306.9558548931445</v>
+      </c>
+      <c r="E170" s="4">
+        <v>40.776728372256386</v>
+      </c>
+      <c r="F170" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4">
+        <v>5328.8312281825611</v>
+      </c>
+      <c r="E171" s="4">
+        <v>40.564304191234584</v>
+      </c>
+      <c r="F171" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4">
+        <v>5350.1725155037493</v>
+      </c>
+      <c r="E172" s="4">
+        <v>40.345079161874629</v>
+      </c>
+      <c r="F172" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4">
+        <v>5370.7207643397924</v>
+      </c>
+      <c r="E173" s="4">
+        <v>40.118609846289942</v>
+      </c>
+      <c r="F173" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4">
+        <v>5390.6677466332476</v>
+      </c>
+      <c r="E174" s="4">
+        <v>39.884584520838601</v>
+      </c>
+      <c r="F174" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4">
+        <v>5410.0242126862522</v>
+      </c>
+      <c r="E175" s="4">
+        <v>39.642915376097456</v>
+      </c>
+      <c r="F175" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E176" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F176" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4">
+        <v>4762.735858452208</v>
+      </c>
+      <c r="E177" s="4">
+        <v>45.054083168441402</v>
+      </c>
+      <c r="F177" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4">
+        <v>4787.0544662801385</v>
+      </c>
+      <c r="E178" s="4">
+        <v>44.815588328037798</v>
+      </c>
+      <c r="F178" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4">
+        <v>4811.313436295598</v>
+      </c>
+      <c r="E179" s="4">
+        <v>44.584052385443819</v>
+      </c>
+      <c r="F179" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4">
+        <v>4836.8367101856948</v>
+      </c>
+      <c r="E180" s="4">
+        <v>44.361042804716291</v>
+      </c>
+      <c r="F180" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4">
+        <v>4862.3657624083316</v>
+      </c>
+      <c r="E181" s="4">
+        <v>44.145536541757686</v>
+      </c>
+      <c r="F181" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4">
+        <v>4887.9166844611909</v>
+      </c>
+      <c r="E182" s="4">
+        <v>43.937630187168672</v>
+      </c>
+      <c r="F182" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4">
+        <v>4913.4756136003189</v>
+      </c>
+      <c r="E183" s="4">
+        <v>43.736594922250504</v>
+      </c>
+      <c r="F183" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4">
+        <v>4939.0251327452388</v>
+      </c>
+      <c r="E184" s="4">
+        <v>43.541644852121983</v>
+      </c>
+      <c r="F184" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4">
+        <v>4964.7772559557761</v>
+      </c>
+      <c r="E185" s="4">
+        <v>43.353021462771899</v>
+      </c>
+      <c r="F185" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4">
+        <v>4990.5349499718459</v>
+      </c>
+      <c r="E186" s="4">
+        <v>43.170487658588897</v>
+      </c>
+      <c r="F186" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4">
+        <v>5016.2481573973528</v>
+      </c>
+      <c r="E187" s="4">
+        <v>42.992458478248579</v>
+      </c>
+      <c r="F187" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4">
+        <v>5041.8421265208708</v>
+      </c>
+      <c r="E188" s="4">
+        <v>42.816786979625419</v>
+      </c>
+      <c r="F188" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4">
+        <v>5067.2509550212781</v>
+      </c>
+      <c r="E189" s="4">
+        <v>42.641655506208544</v>
+      </c>
+      <c r="F189" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4">
+        <v>5092.5837009012339</v>
+      </c>
+      <c r="E190" s="4">
+        <v>42.46619475110257</v>
+      </c>
+      <c r="F190" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4">
+        <v>5117.6760862920592</v>
+      </c>
+      <c r="E191" s="4">
+        <v>42.289891021574483</v>
+      </c>
+      <c r="F191" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4">
+        <v>5142.5083561301226</v>
+      </c>
+      <c r="E192" s="4">
+        <v>42.112239413118225</v>
+      </c>
+      <c r="F192" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4">
+        <v>5167.0556135728712</v>
+      </c>
+      <c r="E193" s="4">
+        <v>41.93263404029797</v>
+      </c>
+      <c r="F193" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4">
+        <v>5191.2903191783525</v>
+      </c>
+      <c r="E194" s="4">
+        <v>41.750433893872838</v>
+      </c>
+      <c r="F194" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4">
+        <v>5215.2483416137511</v>
+      </c>
+      <c r="E195" s="4">
+        <v>41.565081386637132</v>
+      </c>
+      <c r="F195" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4">
+        <v>5238.8343371796973</v>
+      </c>
+      <c r="E196" s="4">
+        <v>41.375874039578257</v>
+      </c>
+      <c r="F196" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4">
+        <v>5262.0062747841002</v>
+      </c>
+      <c r="E197" s="4">
+        <v>41.181916195898474</v>
+      </c>
+      <c r="F197" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4">
+        <v>5284.7266738211829</v>
+      </c>
+      <c r="E198" s="4">
+        <v>40.982457084468813</v>
+      </c>
+      <c r="F198" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4">
+        <v>5306.9558548931445</v>
+      </c>
+      <c r="E199" s="4">
+        <v>40.776728372256386</v>
+      </c>
+      <c r="F199" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4">
+        <v>5328.8312281825611</v>
+      </c>
+      <c r="E200" s="4">
+        <v>40.564304191234584</v>
+      </c>
+      <c r="F200" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4">
+        <v>5350.1725155037493</v>
+      </c>
+      <c r="E201" s="4">
+        <v>40.345079161874629</v>
+      </c>
+      <c r="F201" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4">
+        <v>5370.7207643397924</v>
+      </c>
+      <c r="E202" s="4">
+        <v>40.118609846289942</v>
+      </c>
+      <c r="F202" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4">
+        <v>5390.6677466332476</v>
+      </c>
+      <c r="E203" s="4">
+        <v>39.884584520838601</v>
+      </c>
+      <c r="F203" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4">
+        <v>5410.0242126862522</v>
+      </c>
+      <c r="E204" s="4">
+        <v>39.642915376097456</v>
+      </c>
+      <c r="F204" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E205" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F205" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4">
+        <v>4762.735858452208</v>
+      </c>
+      <c r="E206" s="4">
+        <v>45.054083168441402</v>
+      </c>
+      <c r="F206" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4">
+        <v>4787.0544662801385</v>
+      </c>
+      <c r="E207" s="4">
+        <v>44.815588328037798</v>
+      </c>
+      <c r="F207" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4">
+        <v>4811.313436295598</v>
+      </c>
+      <c r="E208" s="4">
+        <v>44.584052385443819</v>
+      </c>
+      <c r="F208" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4">
+        <v>4836.8367101856948</v>
+      </c>
+      <c r="E209" s="4">
+        <v>44.361042804716291</v>
+      </c>
+      <c r="F209" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4">
+        <v>4862.3657624083316</v>
+      </c>
+      <c r="E210" s="4">
+        <v>44.145536541757686</v>
+      </c>
+      <c r="F210" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4">
+        <v>4887.9166844611909</v>
+      </c>
+      <c r="E211" s="4">
+        <v>43.937630187168672</v>
+      </c>
+      <c r="F211" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4">
+        <v>4913.4756136003189</v>
+      </c>
+      <c r="E212" s="4">
+        <v>43.736594922250504</v>
+      </c>
+      <c r="F212" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4">
+        <v>4939.0251327452388</v>
+      </c>
+      <c r="E213" s="4">
+        <v>43.541644852121983</v>
+      </c>
+      <c r="F213" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4">
+        <v>4964.7772559557761</v>
+      </c>
+      <c r="E214" s="4">
+        <v>43.353021462771899</v>
+      </c>
+      <c r="F214" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4">
+        <v>4990.5349499718459</v>
+      </c>
+      <c r="E215" s="4">
+        <v>43.170487658588897</v>
+      </c>
+      <c r="F215" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4">
+        <v>5016.2481573973528</v>
+      </c>
+      <c r="E216" s="4">
+        <v>42.992458478248579</v>
+      </c>
+      <c r="F216" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4">
+        <v>5041.8421265208708</v>
+      </c>
+      <c r="E217" s="4">
+        <v>42.816786979625419</v>
+      </c>
+      <c r="F217" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4">
+        <v>5067.2509550212781</v>
+      </c>
+      <c r="E218" s="4">
+        <v>42.641655506208544</v>
+      </c>
+      <c r="F218" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4">
+        <v>5092.5837009012339</v>
+      </c>
+      <c r="E219" s="4">
+        <v>42.46619475110257</v>
+      </c>
+      <c r="F219" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4">
+        <v>5117.6760862920592</v>
+      </c>
+      <c r="E220" s="4">
+        <v>42.289891021574483</v>
+      </c>
+      <c r="F220" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4">
+        <v>5142.5083561301226</v>
+      </c>
+      <c r="E221" s="4">
+        <v>42.112239413118225</v>
+      </c>
+      <c r="F221" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4">
+        <v>5167.0556135728712</v>
+      </c>
+      <c r="E222" s="4">
+        <v>41.93263404029797</v>
+      </c>
+      <c r="F222" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4">
+        <v>5191.2903191783525</v>
+      </c>
+      <c r="E223" s="4">
+        <v>41.750433893872838</v>
+      </c>
+      <c r="F223" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4">
+        <v>5215.2483416137511</v>
+      </c>
+      <c r="E224" s="4">
+        <v>41.565081386637132</v>
+      </c>
+      <c r="F224" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4">
+        <v>5238.8343371796973</v>
+      </c>
+      <c r="E225" s="4">
+        <v>41.375874039578257</v>
+      </c>
+      <c r="F225" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4">
+        <v>5262.0062747841002</v>
+      </c>
+      <c r="E226" s="4">
+        <v>41.181916195898474</v>
+      </c>
+      <c r="F226" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4">
+        <v>5284.7266738211829</v>
+      </c>
+      <c r="E227" s="4">
+        <v>40.982457084468813</v>
+      </c>
+      <c r="F227" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4">
+        <v>5306.9558548931445</v>
+      </c>
+      <c r="E228" s="4">
+        <v>40.776728372256386</v>
+      </c>
+      <c r="F228" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4">
+        <v>5328.8312281825611</v>
+      </c>
+      <c r="E229" s="4">
+        <v>40.564304191234584</v>
+      </c>
+      <c r="F229" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4">
+        <v>5350.1725155037493</v>
+      </c>
+      <c r="E230" s="4">
+        <v>40.345079161874629</v>
+      </c>
+      <c r="F230" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4">
+        <v>5370.7207643397924</v>
+      </c>
+      <c r="E231" s="4">
+        <v>40.118609846289942</v>
+      </c>
+      <c r="F231" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4">
+        <v>5390.6677466332476</v>
+      </c>
+      <c r="E232" s="4">
+        <v>39.884584520838601</v>
+      </c>
+      <c r="F232" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4">
+        <v>5410.0242126862522</v>
+      </c>
+      <c r="E233" s="4">
+        <v>39.642915376097456</v>
+      </c>
+      <c r="F233" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E234" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F234" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G234" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4">
+        <v>4756.7780879439142</v>
+      </c>
+      <c r="E235" s="4">
+        <v>44.876800180407457</v>
+      </c>
+      <c r="F235" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4">
+        <v>4778.9125378593671</v>
+      </c>
+      <c r="E236" s="4">
+        <v>44.576544528872489</v>
+      </c>
+      <c r="F236" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G236" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4">
+        <v>4800.6510292329885</v>
+      </c>
+      <c r="E237" s="4">
+        <v>44.275129786963355</v>
+      </c>
+      <c r="F237" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G237" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4">
+        <v>4826.2233045730072</v>
+      </c>
+      <c r="E238" s="4">
+        <v>43.973276207843362</v>
+      </c>
+      <c r="F238" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G238" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4">
+        <v>4851.3321301092246</v>
+      </c>
+      <c r="E239" s="4">
+        <v>43.671567502705763</v>
+      </c>
+      <c r="F239" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G239" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4">
+        <v>4876.0127917674672</v>
+      </c>
+      <c r="E240" s="4">
+        <v>43.370613948333293</v>
+      </c>
+      <c r="F240" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G240" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4">
+        <v>4900.2953041907676</v>
+      </c>
+      <c r="E241" s="4">
+        <v>43.070885326236997</v>
+      </c>
+      <c r="F241" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G241" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4">
+        <v>4924.2071578521309</v>
+      </c>
+      <c r="E242" s="4">
+        <v>42.77278995121447</v>
+      </c>
+      <c r="F242" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G242" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4">
+        <v>4948.9536585054102</v>
+      </c>
+      <c r="E243" s="4">
+        <v>42.476626435828507</v>
+      </c>
+      <c r="F243" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G243" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4">
+        <v>4973.2953650643194</v>
+      </c>
+      <c r="E244" s="4">
+        <v>42.182306907792622</v>
+      </c>
+      <c r="F244" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G244" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4">
+        <v>4997.2413582350646</v>
+      </c>
+      <c r="E245" s="4">
+        <v>41.889633796537957</v>
+      </c>
+      <c r="F245" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G245" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4">
+        <v>5020.7937237672877</v>
+      </c>
+      <c r="E246" s="4">
+        <v>41.598273426694277</v>
+      </c>
+      <c r="F246" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4">
+        <v>5043.9470746795278</v>
+      </c>
+      <c r="E247" s="4">
+        <v>41.307747237149727</v>
+      </c>
+      <c r="F247" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4">
+        <v>5067.1034267561099</v>
+      </c>
+      <c r="E248" s="4">
+        <v>41.017892800709404</v>
+      </c>
+      <c r="F248" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G248" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4">
+        <v>5089.8398336327191</v>
+      </c>
+      <c r="E249" s="4">
+        <v>40.728319344726131</v>
+      </c>
+      <c r="F249" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4">
+        <v>5112.1345202077973</v>
+      </c>
+      <c r="E250" s="4">
+        <v>40.438219022405832</v>
+      </c>
+      <c r="F250" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G250" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4">
+        <v>5133.9581027223712</v>
+      </c>
+      <c r="E251" s="4">
+        <v>40.146656663128276</v>
+      </c>
+      <c r="F251" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4">
+        <v>5155.2795769544437</v>
+      </c>
+      <c r="E252" s="4">
+        <v>39.852719048601472</v>
+      </c>
+      <c r="F252" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4">
+        <v>5176.371887804271</v>
+      </c>
+      <c r="E253" s="4">
+        <v>39.555852993774302</v>
+      </c>
+      <c r="F253" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G253" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4">
+        <v>5196.9155616597218</v>
+      </c>
+      <c r="E254" s="4">
+        <v>39.255641388855118</v>
+      </c>
+      <c r="F254" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4">
+        <v>5216.8895199634771</v>
+      </c>
+      <c r="E255" s="4">
+        <v>38.95151347254621</v>
+      </c>
+      <c r="F255" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4">
+        <v>5236.267030475311</v>
+      </c>
+      <c r="E256" s="4">
+        <v>38.642806283540075</v>
+      </c>
+      <c r="F256" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4">
+        <v>5255.0209251423867</v>
+      </c>
+      <c r="E257" s="4">
+        <v>38.328887593821882</v>
+      </c>
+      <c r="F257" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4">
+        <v>5273.5159828653295</v>
+      </c>
+      <c r="E258" s="4">
+        <v>38.009463260327443</v>
+      </c>
+      <c r="F258" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4">
+        <v>5291.3352656990555</v>
+      </c>
+      <c r="E259" s="4">
+        <v>37.684089826104355</v>
+      </c>
+      <c r="F259" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G259" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4">
+        <v>5308.4528486300478</v>
+      </c>
+      <c r="E260" s="4">
+        <v>37.352227263099444</v>
+      </c>
+      <c r="F260" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G260" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4">
+        <v>5324.8343522442474</v>
+      </c>
+      <c r="E261" s="4">
+        <v>37.013181876608613</v>
+      </c>
+      <c r="F261" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G261" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4">
+        <v>5340.457790736742</v>
+      </c>
+      <c r="E262" s="4">
+        <v>36.666567305149655</v>
+      </c>
+      <c r="F262" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E263" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F263" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G263" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4">
+        <v>4756.7780879439142</v>
+      </c>
+      <c r="E264" s="4">
+        <v>44.876800180407457</v>
+      </c>
+      <c r="F264" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G264" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4">
+        <v>4778.9125378593671</v>
+      </c>
+      <c r="E265" s="4">
+        <v>44.576544528872489</v>
+      </c>
+      <c r="F265" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4">
+        <v>4800.6510292329885</v>
+      </c>
+      <c r="E266" s="4">
+        <v>44.275129786963355</v>
+      </c>
+      <c r="F266" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G266" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4">
+        <v>4826.2233045730072</v>
+      </c>
+      <c r="E267" s="4">
+        <v>43.973276207843362</v>
+      </c>
+      <c r="F267" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4">
+        <v>4851.3321301092246</v>
+      </c>
+      <c r="E268" s="4">
+        <v>43.671567502705763</v>
+      </c>
+      <c r="F268" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G268" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4">
+        <v>4876.0127917674672</v>
+      </c>
+      <c r="E269" s="4">
+        <v>43.370613948333293</v>
+      </c>
+      <c r="F269" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G269" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4">
+        <v>4900.2953041907676</v>
+      </c>
+      <c r="E270" s="4">
+        <v>43.070885326236997</v>
+      </c>
+      <c r="F270" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4">
+        <v>4924.2071578521309</v>
+      </c>
+      <c r="E271" s="4">
+        <v>42.77278995121447</v>
+      </c>
+      <c r="F271" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G271" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4">
+        <v>4948.9536585054102</v>
+      </c>
+      <c r="E272" s="4">
+        <v>42.476626435828507</v>
+      </c>
+      <c r="F272" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G272" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4">
+        <v>4973.2953650643194</v>
+      </c>
+      <c r="E273" s="4">
+        <v>42.182306907792622</v>
+      </c>
+      <c r="F273" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G273" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4">
+        <v>4997.2413582350646</v>
+      </c>
+      <c r="E274" s="4">
+        <v>41.889633796537957</v>
+      </c>
+      <c r="F274" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G274" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4">
+        <v>5020.7937237672877</v>
+      </c>
+      <c r="E275" s="4">
+        <v>41.598273426694277</v>
+      </c>
+      <c r="F275" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G275" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4">
+        <v>5043.9470746795278</v>
+      </c>
+      <c r="E276" s="4">
+        <v>41.307747237149727</v>
+      </c>
+      <c r="F276" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G276" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4">
+        <v>5067.1034267561099</v>
+      </c>
+      <c r="E277" s="4">
+        <v>41.017892800709404</v>
+      </c>
+      <c r="F277" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G277" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4">
+        <v>5089.8398336327191</v>
+      </c>
+      <c r="E278" s="4">
+        <v>40.728319344726131</v>
+      </c>
+      <c r="F278" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G278" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4">
+        <v>5112.1345202077973</v>
+      </c>
+      <c r="E279" s="4">
+        <v>40.438219022405832</v>
+      </c>
+      <c r="F279" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G279" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4">
+        <v>5133.9581027223712</v>
+      </c>
+      <c r="E280" s="4">
+        <v>40.146656663128276</v>
+      </c>
+      <c r="F280" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G280" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4">
+        <v>5155.2795769544437</v>
+      </c>
+      <c r="E281" s="4">
+        <v>39.852719048601472</v>
+      </c>
+      <c r="F281" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G281" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4">
+        <v>5176.371887804271</v>
+      </c>
+      <c r="E282" s="4">
+        <v>39.555852993774302</v>
+      </c>
+      <c r="F282" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G282" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4">
+        <v>5196.9155616597218</v>
+      </c>
+      <c r="E283" s="4">
+        <v>39.255641388855118</v>
+      </c>
+      <c r="F283" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G283" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4">
+        <v>5216.8895199634771</v>
+      </c>
+      <c r="E284" s="4">
+        <v>38.95151347254621</v>
+      </c>
+      <c r="F284" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G284" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4">
+        <v>5236.267030475311</v>
+      </c>
+      <c r="E285" s="4">
+        <v>38.642806283540075</v>
+      </c>
+      <c r="F285" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G285" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4">
+        <v>5255.0209251423867</v>
+      </c>
+      <c r="E286" s="4">
+        <v>38.328887593821882</v>
+      </c>
+      <c r="F286" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G286" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4">
+        <v>5273.5159828653295</v>
+      </c>
+      <c r="E287" s="4">
+        <v>38.009463260327443</v>
+      </c>
+      <c r="F287" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G287" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4">
+        <v>5291.3352656990555</v>
+      </c>
+      <c r="E288" s="4">
+        <v>37.684089826104355</v>
+      </c>
+      <c r="F288" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G288" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4">
+        <v>5308.4528486300478</v>
+      </c>
+      <c r="E289" s="4">
+        <v>37.352227263099444</v>
+      </c>
+      <c r="F289" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G289" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4">
+        <v>5324.8343522442474</v>
+      </c>
+      <c r="E290" s="4">
+        <v>37.013181876608613</v>
+      </c>
+      <c r="F290" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4">
+        <v>5340.457790736742</v>
+      </c>
+      <c r="E291" s="4">
+        <v>36.666567305149655</v>
+      </c>
+      <c r="F291" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G291" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4">
+        <v>4510.7480653482371</v>
+      </c>
+      <c r="E292" s="4">
+        <v>45.295150954975547</v>
+      </c>
+      <c r="F292" s="4">
+        <v>27576.355020540752</v>
+      </c>
+      <c r="G292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4">
+        <v>4756.7780879439142</v>
+      </c>
+      <c r="E293" s="4">
+        <v>44.876800180407457</v>
+      </c>
+      <c r="F293" s="4">
+        <v>27377.952558380763</v>
+      </c>
+      <c r="G293" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4">
+        <v>4778.9125378593671</v>
+      </c>
+      <c r="E294" s="4">
+        <v>44.576544528872489</v>
+      </c>
+      <c r="F294" s="4">
+        <v>27179.550096220781</v>
+      </c>
+      <c r="G294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4">
+        <v>4800.6510292329885</v>
+      </c>
+      <c r="E295" s="4">
+        <v>44.275129786963355</v>
+      </c>
+      <c r="F295" s="4">
+        <v>26981.147634060795</v>
+      </c>
+      <c r="G295" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4">
+        <v>4826.2233045730072</v>
+      </c>
+      <c r="E296" s="4">
+        <v>43.973276207843362</v>
+      </c>
+      <c r="F296" s="4">
+        <v>26782.745171900817</v>
+      </c>
+      <c r="G296" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4">
+        <v>4851.3321301092246</v>
+      </c>
+      <c r="E297" s="4">
+        <v>43.671567502705763</v>
+      </c>
+      <c r="F297" s="4">
+        <v>26584.342709740828</v>
+      </c>
+      <c r="G297" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4">
+        <v>4876.0127917674672</v>
+      </c>
+      <c r="E298" s="4">
+        <v>43.370613948333293</v>
+      </c>
+      <c r="F298" s="4">
+        <v>26385.940247580842</v>
+      </c>
+      <c r="G298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4">
+        <v>4900.2953041907676</v>
+      </c>
+      <c r="E299" s="4">
+        <v>43.070885326236997</v>
+      </c>
+      <c r="F299" s="4">
+        <v>26187.537785420849</v>
+      </c>
+      <c r="G299" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4">
+        <v>4924.2071578521309</v>
+      </c>
+      <c r="E300" s="4">
+        <v>42.77278995121447</v>
+      </c>
+      <c r="F300" s="4">
+        <v>25989.135323260867</v>
+      </c>
+      <c r="G300" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4">
+        <v>4948.9536585054102</v>
+      </c>
+      <c r="E301" s="4">
+        <v>42.476626435828507</v>
+      </c>
+      <c r="F301" s="4">
+        <v>25790.732861100878</v>
+      </c>
+      <c r="G301" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4">
+        <v>4973.2953650643194</v>
+      </c>
+      <c r="E302" s="4">
+        <v>42.182306907792622</v>
+      </c>
+      <c r="F302" s="4">
+        <v>25592.330398940892</v>
+      </c>
+      <c r="G302" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4">
+        <v>4997.2413582350646</v>
+      </c>
+      <c r="E303" s="4">
+        <v>41.889633796537957</v>
+      </c>
+      <c r="F303" s="4">
+        <v>25393.92793678091</v>
+      </c>
+      <c r="G303" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4">
+        <v>5020.7937237672877</v>
+      </c>
+      <c r="E304" s="4">
+        <v>41.598273426694277</v>
+      </c>
+      <c r="F304" s="4">
+        <v>25195.525474620925</v>
+      </c>
+      <c r="G304" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4">
+        <v>5043.9470746795278</v>
+      </c>
+      <c r="E305" s="4">
+        <v>41.307747237149727</v>
+      </c>
+      <c r="F305" s="4">
+        <v>24997.123012460932</v>
+      </c>
+      <c r="G305" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4">
+        <v>5067.1034267561099</v>
+      </c>
+      <c r="E306" s="4">
+        <v>41.017892800709404</v>
+      </c>
+      <c r="F306" s="4">
+        <v>24798.72055030095</v>
+      </c>
+      <c r="G306" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4">
+        <v>5089.8398336327191</v>
+      </c>
+      <c r="E307" s="4">
+        <v>40.728319344726131</v>
+      </c>
+      <c r="F307" s="4">
+        <v>24600.318088140964</v>
+      </c>
+      <c r="G307" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4">
+        <v>5112.1345202077973</v>
+      </c>
+      <c r="E308" s="4">
+        <v>40.438219022405832</v>
+      </c>
+      <c r="F308" s="4">
+        <v>24401.915625980975</v>
+      </c>
+      <c r="G308" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4">
+        <v>5133.9581027223712</v>
+      </c>
+      <c r="E309" s="4">
+        <v>40.146656663128276</v>
+      </c>
+      <c r="F309" s="4">
+        <v>24203.513163820986</v>
+      </c>
+      <c r="G309" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4">
+        <v>5155.2795769544437</v>
+      </c>
+      <c r="E310" s="4">
+        <v>39.852719048601472</v>
+      </c>
+      <c r="F310" s="4">
+        <v>24005.110701661008</v>
+      </c>
+      <c r="G310" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4">
+        <v>5176.371887804271</v>
+      </c>
+      <c r="E311" s="4">
+        <v>39.555852993774302</v>
+      </c>
+      <c r="F311" s="4">
+        <v>23806.708239501015</v>
+      </c>
+      <c r="G311" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4">
+        <v>5196.9155616597218</v>
+      </c>
+      <c r="E312" s="4">
+        <v>39.255641388855118</v>
+      </c>
+      <c r="F312" s="4">
+        <v>23608.305777341029</v>
+      </c>
+      <c r="G312" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4">
+        <v>5216.8895199634771</v>
+      </c>
+      <c r="E313" s="4">
+        <v>38.95151347254621</v>
+      </c>
+      <c r="F313" s="4">
+        <v>23409.903315181047</v>
+      </c>
+      <c r="G313" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4">
+        <v>5236.267030475311</v>
+      </c>
+      <c r="E314" s="4">
+        <v>38.642806283540075</v>
+      </c>
+      <c r="F314" s="4">
+        <v>23211.500853021062</v>
+      </c>
+      <c r="G314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4">
+        <v>5255.0209251423867</v>
+      </c>
+      <c r="E315" s="4">
+        <v>38.328887593821882</v>
+      </c>
+      <c r="F315" s="4">
+        <v>23013.09839086108</v>
+      </c>
+      <c r="G315" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4">
+        <v>5273.5159828653295</v>
+      </c>
+      <c r="E316" s="4">
+        <v>38.009463260327443</v>
+      </c>
+      <c r="F316" s="4">
+        <v>22814.695928701094</v>
+      </c>
+      <c r="G316" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4">
+        <v>5291.3352656990555</v>
+      </c>
+      <c r="E317" s="4">
+        <v>37.684089826104355</v>
+      </c>
+      <c r="F317" s="4">
+        <v>22616.293466541109</v>
+      </c>
+      <c r="G317" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4">
+        <v>5308.4528486300478</v>
+      </c>
+      <c r="E318" s="4">
+        <v>37.352227263099444</v>
+      </c>
+      <c r="F318" s="4">
+        <v>22417.891004381116</v>
+      </c>
+      <c r="G318" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4">
+        <v>5324.8343522442474</v>
+      </c>
+      <c r="E319" s="4">
+        <v>37.013181876608613</v>
+      </c>
+      <c r="F319" s="4">
+        <v>22219.48854222113</v>
+      </c>
+      <c r="G319" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4">
+        <v>5340.457790736742</v>
+      </c>
+      <c r="E320" s="4">
+        <v>36.666567305149655</v>
+      </c>
+      <c r="F320" s="4">
+        <v>22021.086080061148</v>
+      </c>
+      <c r="G320" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,9 +6814,9 @@
       <selection activeCell="A18" sqref="A18:G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +6908,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2022,7 +7000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +7092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +7184,7 @@
         <v>4687.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2298,7 +7276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +7368,7 @@
         <v>27576.400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2422,7 +7400,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2454,7 +7432,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +7524,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2638,7 +7616,7 @@
         <v>2794.4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +7708,7 @@
         <v>3876.9</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2822,7 +7800,7 @@
         <v>14774.5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2914,7 +7892,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -3006,7 +7984,7 @@
         <v>9974.4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3038,7 +8016,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -3063,7 +8041,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2022</v>
       </c>
@@ -3088,7 +8066,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2023</v>
       </c>
@@ -3113,7 +8091,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2024</v>
       </c>
@@ -3138,7 +8116,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2025</v>
       </c>
@@ -3163,7 +8141,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2026</v>
       </c>
@@ -3188,7 +8166,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2027</v>
       </c>
@@ -3213,7 +8191,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2028</v>
       </c>
@@ -3238,7 +8216,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2029</v>
       </c>
@@ -3263,7 +8241,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2030</v>
       </c>
@@ -3288,7 +8266,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2031</v>
       </c>
@@ -3313,7 +8291,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2032</v>
       </c>
@@ -3338,7 +8316,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2033</v>
       </c>
@@ -3363,7 +8341,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2034</v>
       </c>
@@ -3388,7 +8366,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2035</v>
       </c>
@@ -3413,7 +8391,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2036</v>
       </c>
@@ -3438,7 +8416,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2037</v>
       </c>
@@ -3463,7 +8441,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2038</v>
       </c>
@@ -3488,7 +8466,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2039</v>
       </c>
@@ -3513,7 +8491,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2040</v>
       </c>
@@ -3538,7 +8516,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2041</v>
       </c>
@@ -3563,7 +8541,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2042</v>
       </c>
@@ -3588,7 +8566,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2043</v>
       </c>
@@ -3613,7 +8591,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2044</v>
       </c>
@@ -3638,7 +8616,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2045</v>
       </c>
@@ -3663,7 +8641,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2046</v>
       </c>
@@ -3688,7 +8666,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2047</v>
       </c>
@@ -3713,7 +8691,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2048</v>
       </c>
@@ -3738,7 +8716,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2049</v>
       </c>
@@ -3763,7 +8741,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2050</v>
       </c>
@@ -3788,7 +8766,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2022</v>
       </c>
@@ -3813,7 +8791,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2023</v>
       </c>
@@ -3838,7 +8816,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2024</v>
       </c>
@@ -3863,7 +8841,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2025</v>
       </c>
@@ -3888,7 +8866,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2026</v>
       </c>
@@ -3913,7 +8891,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2027</v>
       </c>
@@ -3938,7 +8916,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2028</v>
       </c>
@@ -3963,7 +8941,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2029</v>
       </c>
@@ -3988,7 +8966,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2030</v>
       </c>
@@ -4013,7 +8991,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2031</v>
       </c>
@@ -4038,7 +9016,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2032</v>
       </c>
@@ -4063,7 +9041,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2033</v>
       </c>
@@ -4088,7 +9066,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2034</v>
       </c>
@@ -4113,7 +9091,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2035</v>
       </c>
@@ -4138,7 +9116,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2036</v>
       </c>
@@ -4163,7 +9141,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2037</v>
       </c>
@@ -4188,7 +9166,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2038</v>
       </c>
@@ -4213,7 +9191,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2039</v>
       </c>
@@ -4238,7 +9216,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2040</v>
       </c>
@@ -4263,7 +9241,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2041</v>
       </c>
@@ -4288,7 +9266,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2042</v>
       </c>
@@ -4313,7 +9291,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2043</v>
       </c>
@@ -4338,7 +9316,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2044</v>
       </c>
@@ -4363,7 +9341,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2045</v>
       </c>
@@ -4388,7 +9366,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2046</v>
       </c>
@@ -4413,7 +9391,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2047</v>
       </c>
@@ -4438,7 +9416,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2048</v>
       </c>
@@ -4463,7 +9441,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2049</v>
       </c>
@@ -4488,7 +9466,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2050</v>
       </c>
